--- a/supplementalData/Table S4.xlsx
+++ b/supplementalData/Table S4.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danny/Dropbox/_Manuscripts/16 Species Paper/_ToSubmit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danny/projects/GitHub/Drosophila14GenomesProject/supplementalData/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E75D9F-F746-0C47-9EEF-423009847209}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S4-GenomeAssemblyStats" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="78">
   <si>
     <t>allReads</t>
   </si>
@@ -83,12 +84,6 @@
     <t>D. mauritiana</t>
   </si>
   <si>
-    <t>Dkik.2.1.0.allReads.minimap2.assembly.fasta</t>
-  </si>
-  <si>
-    <t>D. kikkawai</t>
-  </si>
-  <si>
     <t>Deug.2.1.0.allReads.minimap2.assembly.fasta</t>
   </si>
   <si>
@@ -149,9 +144,6 @@
     <t>Dmau.2.1.0.pass.minimap2.assembly.fasta</t>
   </si>
   <si>
-    <t>Dkik.2.1.0.pass.minimap2.assembly.fasta</t>
-  </si>
-  <si>
     <t>Deug.2.1.0.pass.minimap2.assembly.fasta</t>
   </si>
   <si>
@@ -195,9 +187,6 @@
   </si>
   <si>
     <t>Dmau_MS17_all_chromosomes_r.1.0.fasta</t>
-  </si>
-  <si>
-    <t>Dkik_2.0.fasta</t>
   </si>
   <si>
     <t>Deug_2.0.fasta</t>
@@ -275,7 +264,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -352,17 +341,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 3" xfId="2"/>
+    <cellStyle name="Comma 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -674,14 +663,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -696,8 +685,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>81</v>
+      <c r="A1" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -713,82 +702,82 @@
     </row>
     <row r="2" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G2" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
-      <c r="M2" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
+      <c r="M2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
     </row>
     <row r="3" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -832,13 +821,13 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -882,13 +871,13 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -932,13 +921,13 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -982,13 +971,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1032,13 +1021,13 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1047,34 +1036,34 @@
         <v>0</v>
       </c>
       <c r="G9" s="5">
-        <v>164292578</v>
+        <v>117658370</v>
       </c>
       <c r="H9" s="5">
-        <v>5141</v>
+        <v>16</v>
       </c>
       <c r="I9" s="5">
-        <v>903682</v>
+        <v>21136018</v>
       </c>
       <c r="J9" s="5">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="K9" s="5">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="M9" s="1">
-        <v>98.4</v>
+        <v>98.6</v>
       </c>
       <c r="N9" s="1">
-        <v>95.9</v>
+        <v>97.1</v>
       </c>
       <c r="O9" s="1">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="P9" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="Q9" s="1">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="R9" s="1">
         <v>978</v>
@@ -1082,13 +1071,13 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1097,34 +1086,34 @@
         <v>0</v>
       </c>
       <c r="G10" s="5">
-        <v>117658370</v>
+        <v>193826310</v>
       </c>
       <c r="H10" s="5">
-        <v>16</v>
+        <v>6841</v>
       </c>
       <c r="I10" s="5">
-        <v>21136018</v>
+        <v>24764193</v>
       </c>
       <c r="J10" s="5">
+        <v>51</v>
+      </c>
+      <c r="K10" s="5">
         <v>12</v>
       </c>
-      <c r="K10" s="5">
-        <v>7</v>
-      </c>
       <c r="M10" s="1">
-        <v>98.6</v>
+        <v>98.2</v>
       </c>
       <c r="N10" s="1">
-        <v>97.1</v>
+        <v>96.2</v>
       </c>
       <c r="O10" s="1">
+        <v>2</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q10" s="1">
         <v>1.5</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>1.3</v>
       </c>
       <c r="R10" s="1">
         <v>978</v>
@@ -1132,13 +1121,13 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1147,34 +1136,34 @@
         <v>0</v>
       </c>
       <c r="G11" s="5">
-        <v>193826310</v>
+        <v>188374079</v>
       </c>
       <c r="H11" s="5">
-        <v>6841</v>
+        <v>12838</v>
       </c>
       <c r="I11" s="5">
-        <v>24764193</v>
+        <v>1869541</v>
       </c>
       <c r="J11" s="5">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="K11" s="5">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M11" s="1">
-        <v>98.2</v>
+        <v>96.6</v>
       </c>
       <c r="N11" s="1">
-        <v>96.2</v>
+        <v>94.5</v>
       </c>
       <c r="O11" s="1">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P11" s="1">
-        <v>0.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>1.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="R11" s="1">
         <v>978</v>
@@ -1182,13 +1171,13 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1197,34 +1186,34 @@
         <v>0</v>
       </c>
       <c r="G12" s="5">
-        <v>188374079</v>
+        <v>152696384</v>
       </c>
       <c r="H12" s="5">
-        <v>12838</v>
+        <v>4790</v>
       </c>
       <c r="I12" s="5">
-        <v>1869541</v>
+        <v>12541198</v>
       </c>
       <c r="J12" s="5">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="K12" s="5">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="1">
-        <v>96.6</v>
+        <v>97</v>
       </c>
       <c r="N12" s="1">
-        <v>94.5</v>
+        <v>94.2</v>
       </c>
       <c r="O12" s="1">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="P12" s="1">
-        <v>1.1000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="Q12" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.7</v>
       </c>
       <c r="R12" s="1">
         <v>978</v>
@@ -1232,13 +1221,13 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1247,34 +1236,34 @@
         <v>0</v>
       </c>
       <c r="G13" s="5">
-        <v>152696384</v>
+        <v>166577145</v>
       </c>
       <c r="H13" s="5">
-        <v>4790</v>
+        <v>14730</v>
       </c>
       <c r="I13" s="5">
-        <v>12541198</v>
+        <v>2123299</v>
       </c>
       <c r="J13" s="5">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="K13" s="5">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M13" s="1">
-        <v>97</v>
+        <v>97.2</v>
       </c>
       <c r="N13" s="1">
-        <v>94.2</v>
+        <v>95.5</v>
       </c>
       <c r="O13" s="1">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="P13" s="1">
-        <v>0.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="R13" s="1">
         <v>978</v>
@@ -1282,13 +1271,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1297,34 +1286,34 @@
         <v>0</v>
       </c>
       <c r="G14" s="5">
-        <v>166577145</v>
+        <v>124963774</v>
       </c>
       <c r="H14" s="5">
-        <v>14730</v>
+        <v>7619</v>
       </c>
       <c r="I14" s="5">
-        <v>2123299</v>
+        <v>23539531</v>
       </c>
       <c r="J14" s="5">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="K14" s="5">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="M14" s="1">
-        <v>97.2</v>
+        <v>98.6</v>
       </c>
       <c r="N14" s="1">
-        <v>95.5</v>
+        <v>97.1</v>
       </c>
       <c r="O14" s="1">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="P14" s="1">
-        <v>1.1000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="Q14" s="1">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="R14" s="1">
         <v>978</v>
@@ -1332,13 +1321,13 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1347,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="G15" s="5">
-        <v>124963774</v>
+        <v>206026697</v>
       </c>
       <c r="H15" s="5">
-        <v>7619</v>
+        <v>13530</v>
       </c>
       <c r="I15" s="5">
-        <v>23539531</v>
+        <v>10161210</v>
       </c>
       <c r="J15" s="5">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="K15" s="5">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="M15" s="1">
-        <v>98.6</v>
+        <v>97.5</v>
       </c>
       <c r="N15" s="1">
-        <v>97.1</v>
+        <v>95.9</v>
       </c>
       <c r="O15" s="1">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="P15" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Q15" s="1">
-        <v>1.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="R15" s="1">
         <v>978</v>
@@ -1382,13 +1371,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1397,34 +1386,34 @@
         <v>0</v>
       </c>
       <c r="G16" s="5">
-        <v>206026697</v>
+        <v>235516348</v>
       </c>
       <c r="H16" s="5">
-        <v>13530</v>
+        <v>14838</v>
       </c>
       <c r="I16" s="5">
-        <v>10161210</v>
+        <v>4511350</v>
       </c>
       <c r="J16" s="5">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K16" s="5">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M16" s="1">
-        <v>97.5</v>
+        <v>98.4</v>
       </c>
       <c r="N16" s="1">
-        <v>95.9</v>
+        <v>95.5</v>
       </c>
       <c r="O16" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
         <v>1.6</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>2.2000000000000002</v>
       </c>
       <c r="R16" s="1">
         <v>978</v>
@@ -1432,13 +1421,13 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -1447,112 +1436,113 @@
         <v>0</v>
       </c>
       <c r="G17" s="5">
-        <v>235516348</v>
+        <v>165693946</v>
       </c>
       <c r="H17" s="5">
-        <v>14838</v>
+        <v>8122</v>
       </c>
       <c r="I17" s="5">
-        <v>4511350</v>
+        <v>21770863</v>
       </c>
       <c r="J17" s="5">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K17" s="5">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="M17" s="1">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="N17" s="1">
-        <v>95.5</v>
+        <v>93.5</v>
       </c>
       <c r="O17" s="1">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="P17" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q17" s="1">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="R17" s="1">
         <v>978</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5">
-        <v>165693946</v>
-      </c>
-      <c r="H18" s="5">
-        <v>8122</v>
-      </c>
-      <c r="I18" s="5">
-        <v>21770863</v>
-      </c>
-      <c r="J18" s="5">
-        <v>60</v>
-      </c>
-      <c r="K18" s="5">
-        <v>8</v>
-      </c>
-      <c r="M18" s="1">
-        <v>98.5</v>
-      </c>
-      <c r="N18" s="1">
-        <v>93.5</v>
-      </c>
-      <c r="O18" s="1">
-        <v>5</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="R18" s="1">
-        <v>978</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
+      <c r="A19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3">
+        <v>188559244</v>
+      </c>
+      <c r="H19" s="3">
+        <v>371</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2598683</v>
+      </c>
+      <c r="J19" s="3">
+        <v>147</v>
+      </c>
+      <c r="K19" s="3">
+        <v>44</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>94.4</v>
+      </c>
+      <c r="R19" s="1">
+        <v>978</v>
+      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -1562,34 +1552,34 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="3">
-        <v>188559244</v>
+        <v>184648614</v>
       </c>
       <c r="H20" s="3">
-        <v>371</v>
+        <v>666</v>
       </c>
       <c r="I20" s="3">
-        <v>2598683</v>
+        <v>2823469</v>
       </c>
       <c r="J20" s="3">
-        <v>147</v>
+        <v>224</v>
       </c>
       <c r="K20" s="3">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M20" s="1">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="N20" s="1">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="O20" s="1">
         <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>4.3</v>
+        <v>9.6</v>
       </c>
       <c r="Q20" s="1">
-        <v>94.4</v>
+        <v>86.6</v>
       </c>
       <c r="R20" s="1">
         <v>978</v>
@@ -1597,13 +1587,13 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -1613,34 +1603,34 @@
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="3">
-        <v>184648614</v>
+        <v>160478943</v>
       </c>
       <c r="H21" s="3">
-        <v>666</v>
+        <v>570</v>
       </c>
       <c r="I21" s="3">
-        <v>2823469</v>
+        <v>552498</v>
       </c>
       <c r="J21" s="3">
-        <v>224</v>
+        <v>354</v>
       </c>
       <c r="K21" s="3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M21" s="1">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="N21" s="1">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="O21" s="1">
         <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>9.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q21" s="1">
-        <v>86.6</v>
+        <v>94.9</v>
       </c>
       <c r="R21" s="1">
         <v>978</v>
@@ -1648,13 +1638,13 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -1664,34 +1654,34 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="3">
-        <v>160478943</v>
+        <v>127726978</v>
       </c>
       <c r="H22" s="3">
-        <v>570</v>
+        <v>58</v>
       </c>
       <c r="I22" s="3">
-        <v>552498</v>
+        <v>16649012</v>
       </c>
       <c r="J22" s="3">
-        <v>354</v>
+        <v>29</v>
       </c>
       <c r="K22" s="3">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M22" s="1">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="N22" s="1">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="O22" s="1">
         <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q22" s="1">
-        <v>94.9</v>
+        <v>93</v>
       </c>
       <c r="R22" s="1">
         <v>978</v>
@@ -1699,13 +1689,13 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -1715,34 +1705,34 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="3">
-        <v>127726978</v>
+        <v>156418529</v>
       </c>
       <c r="H23" s="3">
-        <v>58</v>
+        <v>547</v>
       </c>
       <c r="I23" s="3">
-        <v>16649012</v>
+        <v>985231</v>
       </c>
       <c r="J23" s="3">
-        <v>29</v>
+        <v>256</v>
       </c>
       <c r="K23" s="3">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="M23" s="1">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="N23" s="1">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="O23" s="1">
         <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q23" s="1">
-        <v>93</v>
+        <v>96.6</v>
       </c>
       <c r="R23" s="1">
         <v>978</v>
@@ -1750,13 +1740,13 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -1766,34 +1756,34 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="3">
-        <v>156418529</v>
+        <v>131925277</v>
       </c>
       <c r="H24" s="3">
-        <v>547</v>
+        <v>272</v>
       </c>
       <c r="I24" s="3">
-        <v>985231</v>
+        <v>4650831</v>
       </c>
       <c r="J24" s="3">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="K24" s="3">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="M24" s="1">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="N24" s="1">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="O24" s="1">
         <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q24" s="1">
-        <v>96.6</v>
+        <v>95.3</v>
       </c>
       <c r="R24" s="1">
         <v>978</v>
@@ -1801,13 +1791,13 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -1817,34 +1807,34 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="3">
-        <v>170526418</v>
+        <v>162137138</v>
       </c>
       <c r="H25" s="3">
-        <v>482</v>
+        <v>122</v>
       </c>
       <c r="I25" s="3">
-        <v>723048</v>
+        <v>5048217</v>
       </c>
       <c r="J25" s="3">
-        <v>339</v>
+        <v>86</v>
       </c>
       <c r="K25" s="3">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M25" s="1">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="N25" s="1">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="O25" s="1">
         <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>6.5</v>
+        <v>1.9</v>
       </c>
       <c r="Q25" s="1">
-        <v>90.4</v>
+        <v>97.6</v>
       </c>
       <c r="R25" s="1">
         <v>978</v>
@@ -1852,13 +1842,13 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -1868,34 +1858,34 @@
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="3">
-        <v>131925277</v>
+        <v>165656918</v>
       </c>
       <c r="H26" s="3">
-        <v>272</v>
+        <v>415</v>
       </c>
       <c r="I26" s="3">
-        <v>4650831</v>
+        <v>3459083</v>
       </c>
       <c r="J26" s="3">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="K26" s="3">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M26" s="1">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="N26" s="1">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="O26" s="1">
         <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q26" s="1">
-        <v>95.3</v>
+        <v>96.4</v>
       </c>
       <c r="R26" s="1">
         <v>978</v>
@@ -1903,13 +1893,13 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -1919,34 +1909,34 @@
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="3">
-        <v>162137138</v>
+        <v>160476330</v>
       </c>
       <c r="H27" s="3">
-        <v>122</v>
+        <v>361</v>
       </c>
       <c r="I27" s="3">
-        <v>5048217</v>
+        <v>3001701</v>
       </c>
       <c r="J27" s="3">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="K27" s="3">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M27" s="1">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="N27" s="1">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="O27" s="1">
         <v>0</v>
       </c>
       <c r="P27" s="1">
-        <v>1.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Q27" s="1">
-        <v>97.6</v>
+        <v>93.4</v>
       </c>
       <c r="R27" s="1">
         <v>978</v>
@@ -1954,13 +1944,13 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -1970,34 +1960,34 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="3">
-        <v>165656918</v>
+        <v>133415705</v>
       </c>
       <c r="H28" s="3">
-        <v>415</v>
+        <v>109</v>
       </c>
       <c r="I28" s="3">
-        <v>3459083</v>
+        <v>7428899</v>
       </c>
       <c r="J28" s="3">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="K28" s="3">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M28" s="1">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="N28" s="1">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="O28" s="1">
         <v>0</v>
       </c>
       <c r="P28" s="1">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="Q28" s="1">
-        <v>96.4</v>
+        <v>94.8</v>
       </c>
       <c r="R28" s="1">
         <v>978</v>
@@ -2005,13 +1995,13 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -2021,34 +2011,34 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="3">
-        <v>160476330</v>
+        <v>132216724</v>
       </c>
       <c r="H29" s="3">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="I29" s="3">
-        <v>3001701</v>
+        <v>7666850</v>
       </c>
       <c r="J29" s="3">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="K29" s="3">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M29" s="1">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="N29" s="1">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="O29" s="1">
         <v>0</v>
       </c>
       <c r="P29" s="1">
-        <v>4.9000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="Q29" s="1">
-        <v>93.4</v>
+        <v>89.9</v>
       </c>
       <c r="R29" s="1">
         <v>978</v>
@@ -2056,13 +2046,13 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -2072,34 +2062,34 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="3">
-        <v>133415705</v>
+        <v>165914532</v>
       </c>
       <c r="H30" s="3">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="I30" s="3">
-        <v>7428899</v>
+        <v>4067820</v>
       </c>
       <c r="J30" s="3">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="K30" s="3">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M30" s="1">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N30" s="1">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O30" s="1">
         <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="Q30" s="1">
-        <v>94.8</v>
+        <v>95.9</v>
       </c>
       <c r="R30" s="1">
         <v>978</v>
@@ -2107,13 +2097,13 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -2123,34 +2113,34 @@
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="3">
-        <v>132216724</v>
+        <v>197704393</v>
       </c>
       <c r="H31" s="3">
-        <v>76</v>
+        <v>490</v>
       </c>
       <c r="I31" s="3">
-        <v>7666850</v>
+        <v>1540700</v>
       </c>
       <c r="J31" s="3">
-        <v>61</v>
+        <v>270</v>
       </c>
       <c r="K31" s="3">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="M31" s="1">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="N31" s="1">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="O31" s="1">
         <v>0</v>
       </c>
       <c r="P31" s="1">
-        <v>7.4</v>
+        <v>1.9</v>
       </c>
       <c r="Q31" s="1">
-        <v>89.9</v>
+        <v>97.5</v>
       </c>
       <c r="R31" s="1">
         <v>978</v>
@@ -2158,13 +2148,13 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -2174,147 +2164,145 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="3">
-        <v>165914532</v>
+        <v>141147110</v>
       </c>
       <c r="H32" s="3">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="I32" s="3">
-        <v>4067820</v>
+        <v>5163216</v>
       </c>
       <c r="J32" s="3">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K32" s="3">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M32" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="N32" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="O32" s="1">
         <v>0</v>
       </c>
       <c r="P32" s="1">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="Q32" s="1">
-        <v>95.9</v>
+        <v>94</v>
       </c>
       <c r="R32" s="1">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="3">
-        <v>197704393</v>
-      </c>
-      <c r="H33" s="3">
-        <v>490</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1540700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>270</v>
-      </c>
-      <c r="K33" s="3">
-        <v>49</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="N33" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="O33" s="1">
-        <v>0</v>
-      </c>
-      <c r="P33" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>97.5</v>
-      </c>
-      <c r="R33" s="1">
         <v>978</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>179369893</v>
+      </c>
+      <c r="H34" s="3">
+        <v>381</v>
+      </c>
+      <c r="I34" s="3">
+        <v>3267404</v>
+      </c>
+      <c r="J34" s="3">
+        <v>146</v>
+      </c>
+      <c r="K34" s="3">
+        <v>34</v>
+      </c>
+      <c r="M34" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N34" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>95.8</v>
+      </c>
+      <c r="R34" s="1">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>184984808</v>
+      </c>
+      <c r="H35" s="3">
+        <v>662</v>
+      </c>
+      <c r="I35" s="3">
+        <v>2624398</v>
+      </c>
+      <c r="J35" s="3">
+        <v>221</v>
+      </c>
+      <c r="K35" s="3">
         <v>31</v>
       </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="3">
-        <v>141147110</v>
-      </c>
-      <c r="H34" s="3">
-        <v>111</v>
-      </c>
-      <c r="I34" s="3">
-        <v>5163216</v>
-      </c>
-      <c r="J34" s="3">
-        <v>68</v>
-      </c>
-      <c r="K34" s="3">
-        <v>32</v>
-      </c>
-      <c r="M34" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="N34" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="O34" s="1">
-        <v>0</v>
-      </c>
-      <c r="P34" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>94</v>
-      </c>
-      <c r="R34" s="1">
+      <c r="M35" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="N35" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>87.5</v>
+      </c>
+      <c r="R35" s="1">
         <v>978</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
@@ -2326,34 +2314,34 @@
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <v>179369893</v>
+        <v>162316435</v>
       </c>
       <c r="H36" s="3">
-        <v>381</v>
+        <v>554</v>
       </c>
       <c r="I36" s="3">
-        <v>3267404</v>
+        <v>582287</v>
       </c>
       <c r="J36" s="3">
-        <v>146</v>
+        <v>348</v>
       </c>
       <c r="K36" s="3">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M36" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="N36" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="O36" s="1">
         <v>0</v>
       </c>
       <c r="P36" s="1">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q36" s="1">
-        <v>95.8</v>
+        <v>95.2</v>
       </c>
       <c r="R36" s="1">
         <v>978</v>
@@ -2361,10 +2349,10 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>0</v>
@@ -2376,34 +2364,34 @@
         <v>0</v>
       </c>
       <c r="G37" s="3">
-        <v>184984808</v>
+        <v>127467429</v>
       </c>
       <c r="H37" s="3">
-        <v>662</v>
+        <v>62</v>
       </c>
       <c r="I37" s="3">
-        <v>2624398</v>
+        <v>16637489</v>
       </c>
       <c r="J37" s="3">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="K37" s="3">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M37" s="1">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N37" s="1">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="O37" s="1">
         <v>0</v>
       </c>
       <c r="P37" s="1">
-        <v>9.1999999999999993</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Q37" s="1">
-        <v>87.5</v>
+        <v>93.4</v>
       </c>
       <c r="R37" s="1">
         <v>978</v>
@@ -2411,10 +2399,10 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>0</v>
@@ -2426,34 +2414,34 @@
         <v>0</v>
       </c>
       <c r="G38" s="3">
-        <v>162316435</v>
+        <v>157557806</v>
       </c>
       <c r="H38" s="3">
-        <v>554</v>
+        <v>584</v>
       </c>
       <c r="I38" s="3">
-        <v>582287</v>
+        <v>985265</v>
       </c>
       <c r="J38" s="3">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="K38" s="3">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="M38" s="1">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="N38" s="1">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="O38" s="1">
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q38" s="1">
-        <v>95.2</v>
+        <v>96.5</v>
       </c>
       <c r="R38" s="1">
         <v>978</v>
@@ -2461,10 +2449,10 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>0</v>
@@ -2476,34 +2464,34 @@
         <v>0</v>
       </c>
       <c r="G39" s="3">
-        <v>127467429</v>
+        <v>131714344</v>
       </c>
       <c r="H39" s="3">
-        <v>62</v>
+        <v>275</v>
       </c>
       <c r="I39" s="3">
-        <v>16637489</v>
+        <v>4645959</v>
       </c>
       <c r="J39" s="3">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="K39" s="3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M39" s="1">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="N39" s="1">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O39" s="1">
         <v>0</v>
       </c>
       <c r="P39" s="1">
-        <v>4.5999999999999996</v>
+        <v>3.2</v>
       </c>
       <c r="Q39" s="1">
-        <v>93.4</v>
+        <v>95.4</v>
       </c>
       <c r="R39" s="1">
         <v>978</v>
@@ -2511,10 +2499,10 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>0</v>
@@ -2526,34 +2514,34 @@
         <v>0</v>
       </c>
       <c r="G40" s="3">
-        <v>157557806</v>
+        <v>163035255</v>
       </c>
       <c r="H40" s="3">
-        <v>584</v>
+        <v>123</v>
       </c>
       <c r="I40" s="3">
-        <v>985265</v>
+        <v>5038894</v>
       </c>
       <c r="J40" s="3">
-        <v>260</v>
+        <v>88</v>
       </c>
       <c r="K40" s="3">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M40" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="N40" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="O40" s="1">
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q40" s="1">
-        <v>96.5</v>
+        <v>96.8</v>
       </c>
       <c r="R40" s="1">
         <v>978</v>
@@ -2561,10 +2549,10 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>0</v>
@@ -2576,34 +2564,34 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>172754309</v>
+        <v>165714966</v>
       </c>
       <c r="H41" s="3">
-        <v>496</v>
+        <v>412</v>
       </c>
       <c r="I41" s="3">
-        <v>740767</v>
+        <v>3365402</v>
       </c>
       <c r="J41" s="3">
-        <v>333</v>
+        <v>139</v>
       </c>
       <c r="K41" s="3">
         <v>35</v>
       </c>
       <c r="M41" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
         <v>3</v>
       </c>
-      <c r="N41" s="1">
-        <v>3</v>
-      </c>
-      <c r="O41" s="1">
-        <v>0</v>
-      </c>
-      <c r="P41" s="1">
-        <v>6.6</v>
-      </c>
       <c r="Q41" s="1">
-        <v>90.4</v>
+        <v>96.6</v>
       </c>
       <c r="R41" s="1">
         <v>978</v>
@@ -2611,10 +2599,10 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>0</v>
@@ -2626,34 +2614,34 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>131714344</v>
+        <v>160438605</v>
       </c>
       <c r="H42" s="3">
-        <v>275</v>
+        <v>355</v>
       </c>
       <c r="I42" s="3">
-        <v>4645959</v>
+        <v>2904468</v>
       </c>
       <c r="J42" s="3">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="K42" s="3">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M42" s="1">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="N42" s="1">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="O42" s="1">
         <v>0</v>
       </c>
       <c r="P42" s="1">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="Q42" s="1">
-        <v>95.4</v>
+        <v>93.5</v>
       </c>
       <c r="R42" s="1">
         <v>978</v>
@@ -2661,10 +2649,10 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>0</v>
@@ -2676,34 +2664,34 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>163035255</v>
+        <v>134310094</v>
       </c>
       <c r="H43" s="3">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="I43" s="3">
-        <v>5038894</v>
+        <v>7416876</v>
       </c>
       <c r="J43" s="3">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="K43" s="3">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="M43" s="1">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="N43" s="1">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="O43" s="1">
         <v>0</v>
       </c>
       <c r="P43" s="1">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="Q43" s="1">
-        <v>96.8</v>
+        <v>94.4</v>
       </c>
       <c r="R43" s="1">
         <v>978</v>
@@ -2711,10 +2699,10 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>0</v>
@@ -2726,34 +2714,34 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>165714966</v>
+        <v>133050646</v>
       </c>
       <c r="H44" s="3">
-        <v>412</v>
+        <v>86</v>
       </c>
       <c r="I44" s="3">
-        <v>3365402</v>
+        <v>6999196</v>
       </c>
       <c r="J44" s="3">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="K44" s="3">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M44" s="1">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="N44" s="1">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="O44" s="1">
         <v>0</v>
       </c>
       <c r="P44" s="1">
-        <v>3</v>
+        <v>7.2</v>
       </c>
       <c r="Q44" s="1">
-        <v>96.6</v>
+        <v>90.1</v>
       </c>
       <c r="R44" s="1">
         <v>978</v>
@@ -2761,10 +2749,10 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>0</v>
@@ -2776,34 +2764,34 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>160438605</v>
+        <v>167180597</v>
       </c>
       <c r="H45" s="3">
-        <v>355</v>
+        <v>152</v>
       </c>
       <c r="I45" s="3">
-        <v>2904468</v>
+        <v>3705765</v>
       </c>
       <c r="J45" s="3">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="K45" s="3">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M45" s="1">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="N45" s="1">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="O45" s="1">
         <v>0</v>
       </c>
       <c r="P45" s="1">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="Q45" s="1">
-        <v>93.5</v>
+        <v>96.1</v>
       </c>
       <c r="R45" s="1">
         <v>978</v>
@@ -2811,10 +2799,10 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>0</v>
@@ -2826,34 +2814,34 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>134310094</v>
+        <v>198305250</v>
       </c>
       <c r="H46" s="3">
-        <v>113</v>
+        <v>482</v>
       </c>
       <c r="I46" s="3">
-        <v>7416876</v>
+        <v>1550658</v>
       </c>
       <c r="J46" s="3">
-        <v>62</v>
+        <v>263</v>
       </c>
       <c r="K46" s="3">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="M46" s="1">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="N46" s="1">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="O46" s="1">
         <v>0</v>
       </c>
       <c r="P46" s="1">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="Q46" s="1">
-        <v>94.4</v>
+        <v>97.8</v>
       </c>
       <c r="R46" s="1">
         <v>978</v>
@@ -2861,10 +2849,10 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>0</v>
@@ -2876,251 +2864,101 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>133050646</v>
+        <v>141735102</v>
       </c>
       <c r="H47" s="3">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="I47" s="3">
-        <v>6999196</v>
+        <v>5163437</v>
       </c>
       <c r="J47" s="3">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="K47" s="3">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M47" s="1">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="N47" s="1">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="O47" s="1">
         <v>0</v>
       </c>
       <c r="P47" s="1">
-        <v>7.2</v>
+        <v>5</v>
       </c>
       <c r="Q47" s="1">
-        <v>90.1</v>
+        <v>93.8</v>
       </c>
       <c r="R47" s="1">
         <v>978</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>167180597</v>
-      </c>
-      <c r="H48" s="3">
-        <v>152</v>
-      </c>
-      <c r="I48" s="3">
-        <v>3705765</v>
-      </c>
-      <c r="J48" s="3">
-        <v>84</v>
-      </c>
-      <c r="K48" s="3">
-        <v>40</v>
-      </c>
-      <c r="M48" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="N48" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="O48" s="1">
-        <v>0</v>
-      </c>
-      <c r="P48" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q48" s="1">
-        <v>96.1</v>
-      </c>
-      <c r="R48" s="1">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>198305250</v>
-      </c>
-      <c r="H49" s="3">
-        <v>482</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1550658</v>
-      </c>
-      <c r="J49" s="3">
-        <v>263</v>
-      </c>
-      <c r="K49" s="3">
-        <v>48</v>
-      </c>
-      <c r="M49" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N49" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="O49" s="1">
-        <v>0</v>
-      </c>
-      <c r="P49" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="Q49" s="1">
-        <v>97.8</v>
-      </c>
-      <c r="R49" s="1">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3">
-        <v>141735102</v>
-      </c>
-      <c r="H50" s="3">
-        <v>117</v>
-      </c>
-      <c r="I50" s="3">
-        <v>5163437</v>
-      </c>
-      <c r="J50" s="3">
-        <v>72</v>
-      </c>
-      <c r="K50" s="3">
-        <v>33</v>
-      </c>
-      <c r="M50" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="N50" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="O50" s="1">
-        <v>0</v>
-      </c>
-      <c r="P50" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q50" s="1">
-        <v>93.8</v>
-      </c>
-      <c r="R50" s="1">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H64" s="2"/>
+    <row r="64" spans="8:9" x14ac:dyDescent="0.2">
       <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="I67" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
